--- a/Dataset/Folds/Fold_1/Excel/29.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="333">
   <si>
     <t>Doi</t>
   </si>
@@ -1057,6 +1057,73 @@
   </si>
   <si>
     <t>[Marija%Pantelic%NULL%1,                          Janina I%Steinert%NULL%2,                          Janina I%Steinert%NULL%0,                          Jay%Park%NULL%1,                          Shaun%Mellors%NULL%1,                          Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                           Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                           Craig%Lockwood%NULL%2,                           Craig%Lockwood%NULL%0,                           Mirkuzie%Woldie%NULL%1,                           Zachary%Munn%NULL%1,                           Jerome A.%Singh%NULL%2,                           Jerome A.%Singh%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                           Conal D.%Twomey%c.twomey@soton.ac.uk%1,                           Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                           Ulrich W.%Birner%ulrich.birner@siemens.com%1,                           Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                           Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                           B. A.%Kohrt%NULL%2,                           B. A.%Kohrt%NULL%0,                           M.%Koschorke%NULL%1,                           M.%Milenova%NULL%1,                           G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                           Janina I%Steinert%NULL%2,                           Janina I%Steinert%NULL%0,                           Jay%Park%NULL%1,                           Shaun%Mellors%NULL%1,                           Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                            Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                            Craig%Lockwood%NULL%2,                            Craig%Lockwood%NULL%0,                            Mirkuzie%Woldie%NULL%1,                            Zachary%Munn%NULL%1,                            Jerome A.%Singh%NULL%2,                            Jerome A.%Singh%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                            Conal D.%Twomey%c.twomey@soton.ac.uk%1,                            Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                            Ulrich W.%Birner%ulrich.birner@siemens.com%1,                            Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                            Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                            B. A.%Kohrt%NULL%2,                            B. A.%Kohrt%NULL%0,                            M.%Koschorke%NULL%1,                            M.%Milenova%NULL%1,                            G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                            Janina I%Steinert%NULL%2,                            Janina I%Steinert%NULL%0,                            Jay%Park%NULL%1,                            Shaun%Mellors%NULL%1,                            Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Self-stigma occurs when people with mental illnesses internalize negative stereotypes and prejudices about their condition.
+ It can reduce help-seeking behaviour and treatment adherence.
+ The effectiveness of interventions aimed at reducing self-stigma in people with mental illness is systematically reviewed.
+ Results are discussed in the context of a logic model of the broader social context of mental illness stigma.
+ </t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%0, Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>German Medical Science GMS Publishing House</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%0, Craig%Lockwood%NULL%2, Craig%Lockwood%NULL%0, Mirkuzie%Woldie%NULL%1, Zachary%Munn%NULL%1, Jerome A.%Singh%NULL%2, Jerome A.%Singh%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%0, Conal D.%Twomey%c.twomey@soton.ac.uk%1, Andrew C. H.%Szeto%aszeto@ucalgary.ca%1, Ulrich W.%Birner%ulrich.birner@siemens.com%1, Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1, Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%0, B. A.%Kohrt%NULL%2, B. A.%Kohrt%NULL%0, M.%Koschorke%NULL%1, M.%Milenova%NULL%1, G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%0, Janina I%Steinert%NULL%2, Janina I%Steinert%NULL%0, Jay%Park%NULL%1, Shaun%Mellors%NULL%1, Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
   </si>
 </sst>
 </file>
@@ -1400,25 +1467,25 @@
         <v>43862.0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
         <v>67</v>
@@ -1435,10 +1502,10 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1450,10 +1517,10 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4">
@@ -1464,28 +1531,28 @@
         <v>41478.0</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
         <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>255</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1502,7 +1569,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1514,10 +1581,10 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6">
@@ -1534,7 +1601,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1546,10 +1613,10 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7">
@@ -1566,7 +1633,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1578,10 +1645,10 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
@@ -1592,25 +1659,25 @@
         <v>43525.0</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
         <v>67</v>
@@ -1624,25 +1691,25 @@
         <v>43862.0</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
         <v>67</v>
@@ -1662,7 +1729,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1674,10 +1741,10 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11">
@@ -1688,28 +1755,28 @@
         <v>41883.0</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
         <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>263</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1787,7 @@
         <v>43040.0</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1729,16 +1796,16 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>67</v>
